--- a/STS IR Bot Performer/Data/Input/Other Deductions List.xlsx
+++ b/STS IR Bot Performer/Data/Input/Other Deductions List.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://taxwarellc-my.sharepoint.com/personal/nahuel_delacruz_sovos_com/Documents/Desktop/Nahuel/Projects/STS Internal Review bot/STS IR Bot Performer/Data/Input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8" documentId="13_ncr:1_{A88D97E2-3E20-47B8-A8E3-3CC06763499B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{50AAACBB-2A42-4652-BD11-19B8237A72EE}"/>
+  <xr:revisionPtr revIDLastSave="12" documentId="13_ncr:1_{A88D97E2-3E20-47B8-A8E3-3CC06763499B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6F5034A7-7FB0-4E3A-80FE-39A80496A342}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{FE4AA1FC-473F-49C3-BAC8-5534CDE657C4}"/>
   </bookViews>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1910" uniqueCount="475">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1909" uniqueCount="475">
   <si>
     <t>State</t>
   </si>
@@ -1027,9 +1027,6 @@
     <t>IL ST-1 and ST-2</t>
   </si>
   <si>
-    <t>(?&lt;=Other \(including cash refunds, newspapers and magazines, etc\.\) - identify below \s+16\s+).*</t>
-  </si>
-  <si>
     <t>OTHER DEDUCTIONS (ATTACH EXPLANATION)</t>
   </si>
   <si>
@@ -1475,6 +1472,9 @@
   </si>
   <si>
     <t>[d(ctrl)][d(end)][u(ctrl)][u(end)]</t>
+  </si>
+  <si>
+    <t>(?&lt;=Other \(including cash refunds\, newspapers and magazines\, etc\.\) \- identify below.*\n.*16.*).*</t>
   </si>
 </sst>
 </file>
@@ -2474,7 +2474,7 @@
         <v>295</v>
       </c>
       <c r="E1" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -2482,7 +2482,7 @@
         <v>94</v>
       </c>
       <c r="B2" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C2" t="s">
         <v>296</v>
@@ -2491,7 +2491,7 @@
         <v>24</v>
       </c>
       <c r="E2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
   </sheetData>
@@ -2517,10 +2517,10 @@
         <v>290</v>
       </c>
       <c r="B1" t="s">
+        <v>469</v>
+      </c>
+      <c r="C1" t="s">
         <v>470</v>
-      </c>
-      <c r="C1" t="s">
-        <v>471</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -2528,10 +2528,10 @@
         <v>44</v>
       </c>
       <c r="B2" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C2" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
   </sheetData>
@@ -2569,7 +2569,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -2586,7 +2586,7 @@
         <v>103</v>
       </c>
       <c r="E2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -2603,7 +2603,7 @@
         <v>89</v>
       </c>
       <c r="E3" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -2620,7 +2620,7 @@
         <v>103</v>
       </c>
       <c r="E4" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -2637,7 +2637,7 @@
         <v>88</v>
       </c>
       <c r="E5" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -2654,7 +2654,7 @@
         <v>88</v>
       </c>
       <c r="E6" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -2671,7 +2671,7 @@
         <v>103</v>
       </c>
       <c r="E7" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -2688,7 +2688,7 @@
         <v>90</v>
       </c>
       <c r="E8" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -2705,7 +2705,7 @@
         <v>92</v>
       </c>
       <c r="E9" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -2722,7 +2722,7 @@
         <v>103</v>
       </c>
       <c r="E10" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -2739,7 +2739,7 @@
         <v>103</v>
       </c>
       <c r="E11" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -2756,7 +2756,7 @@
         <v>103</v>
       </c>
       <c r="E12" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -2773,7 +2773,7 @@
         <v>103</v>
       </c>
       <c r="E13" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -2790,7 +2790,7 @@
         <v>103</v>
       </c>
       <c r="E14" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -2807,7 +2807,7 @@
         <v>93</v>
       </c>
       <c r="E15" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -2824,7 +2824,7 @@
         <v>283</v>
       </c>
       <c r="E16" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="17" spans="1:1021 1025:2045 2049:3069 3073:4093 4097:5117 5121:6141 6145:7165 7169:8189 8193:9213 9217:10237 10241:11261 11265:12285 12289:13309 13313:14333 14337:15357 15361:16357" x14ac:dyDescent="0.25">
@@ -2841,7 +2841,7 @@
         <v>97</v>
       </c>
       <c r="E17" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="18" spans="1:1021 1025:2045 2049:3069 3073:4093 4097:5117 5121:6141 6145:7165 7169:8189 8193:9213 9217:10237 10241:11261 11265:12285 12289:13309 13313:14333 14337:15357 15361:16357" x14ac:dyDescent="0.25">
@@ -2858,7 +2858,7 @@
         <v>103</v>
       </c>
       <c r="E18" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="19" spans="1:1021 1025:2045 2049:3069 3073:4093 4097:5117 5121:6141 6145:7165 7169:8189 8193:9213 9217:10237 10241:11261 11265:12285 12289:13309 13313:14333 14337:15357 15361:16357" x14ac:dyDescent="0.25">
@@ -2875,7 +2875,7 @@
         <v>100</v>
       </c>
       <c r="E19" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="20" spans="1:1021 1025:2045 2049:3069 3073:4093 4097:5117 5121:6141 6145:7165 7169:8189 8193:9213 9217:10237 10241:11261 11265:12285 12289:13309 13313:14333 14337:15357 15361:16357" x14ac:dyDescent="0.25">
@@ -2892,7 +2892,7 @@
         <v>103</v>
       </c>
       <c r="E20" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="21" spans="1:1021 1025:2045 2049:3069 3073:4093 4097:5117 5121:6141 6145:7165 7169:8189 8193:9213 9217:10237 10241:11261 11265:12285 12289:13309 13313:14333 14337:15357 15361:16357" x14ac:dyDescent="0.25">
@@ -2909,7 +2909,7 @@
         <v>88</v>
       </c>
       <c r="E21" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="I21" s="3"/>
       <c r="M21" s="3"/>
@@ -7014,7 +7014,7 @@
         <v>103</v>
       </c>
       <c r="E22" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="23" spans="1:1021 1025:2045 2049:3069 3073:4093 4097:5117 5121:6141 6145:7165 7169:8189 8193:9213 9217:10237 10241:11261 11265:12285 12289:13309 13313:14333 14337:15357 15361:16357" x14ac:dyDescent="0.25">
@@ -7031,7 +7031,7 @@
         <v>103</v>
       </c>
       <c r="E23" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="24" spans="1:1021 1025:2045 2049:3069 3073:4093 4097:5117 5121:6141 6145:7165 7169:8189 8193:9213 9217:10237 10241:11261 11265:12285 12289:13309 13313:14333 14337:15357 15361:16357" x14ac:dyDescent="0.25">
@@ -7048,7 +7048,7 @@
         <v>103</v>
       </c>
       <c r="E24" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="25" spans="1:1021 1025:2045 2049:3069 3073:4093 4097:5117 5121:6141 6145:7165 7169:8189 8193:9213 9217:10237 10241:11261 11265:12285 12289:13309 13313:14333 14337:15357 15361:16357" x14ac:dyDescent="0.25">
@@ -7065,7 +7065,7 @@
         <v>103</v>
       </c>
       <c r="E25" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="26" spans="1:1021 1025:2045 2049:3069 3073:4093 4097:5117 5121:6141 6145:7165 7169:8189 8193:9213 9217:10237 10241:11261 11265:12285 12289:13309 13313:14333 14337:15357 15361:16357" x14ac:dyDescent="0.25">
@@ -7082,7 +7082,7 @@
         <v>103</v>
       </c>
       <c r="E26" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="27" spans="1:1021 1025:2045 2049:3069 3073:4093 4097:5117 5121:6141 6145:7165 7169:8189 8193:9213 9217:10237 10241:11261 11265:12285 12289:13309 13313:14333 14337:15357 15361:16357" x14ac:dyDescent="0.25">
@@ -7099,7 +7099,7 @@
         <v>103</v>
       </c>
       <c r="E27" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="28" spans="1:1021 1025:2045 2049:3069 3073:4093 4097:5117 5121:6141 6145:7165 7169:8189 8193:9213 9217:10237 10241:11261 11265:12285 12289:13309 13313:14333 14337:15357 15361:16357" x14ac:dyDescent="0.25">
@@ -7116,7 +7116,7 @@
         <v>103</v>
       </c>
       <c r="E28" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="29" spans="1:1021 1025:2045 2049:3069 3073:4093 4097:5117 5121:6141 6145:7165 7169:8189 8193:9213 9217:10237 10241:11261 11265:12285 12289:13309 13313:14333 14337:15357 15361:16357" x14ac:dyDescent="0.25">
@@ -7133,7 +7133,7 @@
         <v>103</v>
       </c>
       <c r="E29" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="30" spans="1:1021 1025:2045 2049:3069 3073:4093 4097:5117 5121:6141 6145:7165 7169:8189 8193:9213 9217:10237 10241:11261 11265:12285 12289:13309 13313:14333 14337:15357 15361:16357" x14ac:dyDescent="0.25">
@@ -7150,7 +7150,7 @@
         <v>103</v>
       </c>
       <c r="E30" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="31" spans="1:1021 1025:2045 2049:3069 3073:4093 4097:5117 5121:6141 6145:7165 7169:8189 8193:9213 9217:10237 10241:11261 11265:12285 12289:13309 13313:14333 14337:15357 15361:16357" x14ac:dyDescent="0.25">
@@ -7167,7 +7167,7 @@
         <v>103</v>
       </c>
       <c r="E31" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="32" spans="1:1021 1025:2045 2049:3069 3073:4093 4097:5117 5121:6141 6145:7165 7169:8189 8193:9213 9217:10237 10241:11261 11265:12285 12289:13309 13313:14333 14337:15357 15361:16357" x14ac:dyDescent="0.25">
@@ -7184,7 +7184,7 @@
         <v>103</v>
       </c>
       <c r="E32" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
@@ -7201,7 +7201,7 @@
         <v>103</v>
       </c>
       <c r="E33" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
@@ -7218,7 +7218,7 @@
         <v>103</v>
       </c>
       <c r="E34" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
   </sheetData>
@@ -9118,7 +9118,7 @@
         <v>2</v>
       </c>
       <c r="E2" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="F2" t="s">
         <v>298</v>
@@ -9135,7 +9135,7 @@
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="F3" t="s">
         <v>298</v>
@@ -9152,7 +9152,7 @@
         <v>9</v>
       </c>
       <c r="E4" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="F4" t="s">
         <v>298</v>
@@ -9170,7 +9170,7 @@
         <v>9</v>
       </c>
       <c r="E5" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="F5" t="s">
         <v>298</v>
@@ -9187,7 +9187,7 @@
         <v>2</v>
       </c>
       <c r="E6" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="F6" t="s">
         <v>298</v>
@@ -9204,7 +9204,7 @@
         <v>2</v>
       </c>
       <c r="E7" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="F7" t="s">
         <v>298</v>
@@ -9221,7 +9221,7 @@
         <v>2</v>
       </c>
       <c r="E8" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="F8" t="s">
         <v>298</v>
@@ -9238,7 +9238,7 @@
         <v>2</v>
       </c>
       <c r="E9" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="F9" t="s">
         <v>298</v>
@@ -9255,7 +9255,7 @@
         <v>2</v>
       </c>
       <c r="E10" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="F10" t="s">
         <v>298</v>
@@ -9272,7 +9272,7 @@
         <v>2</v>
       </c>
       <c r="E11" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="F11" t="s">
         <v>298</v>
@@ -9289,7 +9289,7 @@
         <v>2</v>
       </c>
       <c r="E12" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="F12" t="s">
         <v>298</v>
@@ -9306,7 +9306,7 @@
         <v>2</v>
       </c>
       <c r="E13" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="F13" t="s">
         <v>298</v>
@@ -9323,7 +9323,7 @@
         <v>96</v>
       </c>
       <c r="E14" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="F14" t="s">
         <v>298</v>
@@ -9340,7 +9340,7 @@
         <v>96</v>
       </c>
       <c r="E15" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="F15" t="s">
         <v>298</v>
@@ -9357,7 +9357,7 @@
         <v>2</v>
       </c>
       <c r="E16" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="F16" t="s">
         <v>298</v>
@@ -9391,7 +9391,7 @@
         <v>2</v>
       </c>
       <c r="E18" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="F18" t="s">
         <v>298</v>
@@ -9408,7 +9408,7 @@
         <v>9</v>
       </c>
       <c r="E19" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="F19" t="s">
         <v>298</v>
@@ -9425,7 +9425,7 @@
         <v>2</v>
       </c>
       <c r="E20" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="F20" t="s">
         <v>298</v>
@@ -9442,7 +9442,7 @@
         <v>2</v>
       </c>
       <c r="E21" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="F21" t="s">
         <v>298</v>
@@ -9459,7 +9459,7 @@
         <v>2</v>
       </c>
       <c r="E22" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="F22" t="s">
         <v>298</v>
@@ -9476,7 +9476,7 @@
         <v>2</v>
       </c>
       <c r="E23" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="F23" t="s">
         <v>298</v>
@@ -9493,7 +9493,7 @@
         <v>2</v>
       </c>
       <c r="E24" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="F24" t="s">
         <v>298</v>
@@ -9510,7 +9510,7 @@
         <v>2</v>
       </c>
       <c r="E25" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="F25" t="s">
         <v>298</v>
@@ -9527,7 +9527,7 @@
         <v>2</v>
       </c>
       <c r="E26" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="F26" t="s">
         <v>298</v>
@@ -9544,7 +9544,7 @@
         <v>2</v>
       </c>
       <c r="E27" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="F27" t="s">
         <v>298</v>
@@ -9561,7 +9561,7 @@
         <v>2</v>
       </c>
       <c r="E28" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="F28" t="s">
         <v>298</v>
@@ -9578,7 +9578,7 @@
         <v>2</v>
       </c>
       <c r="E29" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="F29" t="s">
         <v>298</v>
@@ -9595,7 +9595,7 @@
         <v>2</v>
       </c>
       <c r="E30" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="F30" t="s">
         <v>298</v>
@@ -9612,7 +9612,7 @@
         <v>2</v>
       </c>
       <c r="E31" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="F31" t="s">
         <v>298</v>
@@ -9630,7 +9630,7 @@
         <v>2</v>
       </c>
       <c r="E32" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="F32" t="s">
         <v>298</v>
@@ -9638,13 +9638,13 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B33" t="s">
         <v>35</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="E33" t="s">
         <v>285</v>
@@ -9735,7 +9735,7 @@
         <v>305</v>
       </c>
       <c r="F38" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
@@ -10120,7 +10120,7 @@
         <v>39</v>
       </c>
       <c r="B61" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D61" s="3">
         <v>1</v>
@@ -10171,7 +10171,7 @@
         <v>39</v>
       </c>
       <c r="B64" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="D64" s="3">
         <v>1</v>
@@ -11568,7 +11568,7 @@
         <v>1</v>
       </c>
       <c r="E146" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="F146" t="s">
         <v>298</v>
@@ -11814,10 +11814,10 @@
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B161" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D161" s="3">
         <v>2</v>
@@ -11831,10 +11831,10 @@
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B162" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D162" s="3">
         <v>2</v>
@@ -11899,7 +11899,7 @@
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B166" t="s">
         <v>67</v>
@@ -11959,7 +11959,7 @@
         <v>73</v>
       </c>
       <c r="D169" s="3" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="E169" t="s">
         <v>305</v>
@@ -11976,10 +11976,10 @@
         <v>73</v>
       </c>
       <c r="C170" t="s">
+        <v>347</v>
+      </c>
+      <c r="D170" s="3" t="s">
         <v>348</v>
-      </c>
-      <c r="D170" s="3" t="s">
-        <v>349</v>
       </c>
       <c r="E170" t="s">
         <v>305</v>
@@ -12067,7 +12067,7 @@
         <v>1</v>
       </c>
       <c r="E175" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="F175" t="s">
         <v>298</v>
@@ -12101,7 +12101,7 @@
         <v>9</v>
       </c>
       <c r="E177" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="F177" t="s">
         <v>307</v>
@@ -12112,7 +12112,7 @@
         <v>80</v>
       </c>
       <c r="B178" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="D178" s="3" t="s">
         <v>24</v>
@@ -12126,13 +12126,13 @@
         <v>37</v>
       </c>
       <c r="B179" t="s">
+        <v>463</v>
+      </c>
+      <c r="D179" t="s">
         <v>464</v>
       </c>
-      <c r="D179" t="s">
-        <v>465</v>
-      </c>
       <c r="E179" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.25">
@@ -12153,7 +12153,7 @@
   <dimension ref="A1:F95"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12181,7 +12181,7 @@
         <v>295</v>
       </c>
       <c r="F1" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -12201,7 +12201,7 @@
         <v>3</v>
       </c>
       <c r="F2" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -12243,7 +12243,7 @@
         <v>44</v>
       </c>
       <c r="B5" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -12332,16 +12332,10 @@
         <v>324</v>
       </c>
       <c r="B12" t="s">
-        <v>325</v>
+        <v>474</v>
       </c>
       <c r="C12">
         <v>1</v>
-      </c>
-      <c r="D12" t="s">
-        <v>296</v>
-      </c>
-      <c r="E12">
-        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -12349,7 +12343,7 @@
         <v>50</v>
       </c>
       <c r="B13" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C13">
         <v>3</v>
@@ -12357,10 +12351,10 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>338</v>
+      </c>
+      <c r="B14" t="s">
         <v>339</v>
-      </c>
-      <c r="B14" t="s">
-        <v>340</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -12374,10 +12368,10 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B15" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C15">
         <v>1</v>
@@ -12394,7 +12388,7 @@
         <v>60</v>
       </c>
       <c r="B16" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C16">
         <v>1</v>
@@ -12411,7 +12405,7 @@
         <v>109</v>
       </c>
       <c r="B17" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C17">
         <v>1</v>
@@ -12422,7 +12416,7 @@
         <v>112</v>
       </c>
       <c r="B18" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C18">
         <v>1</v>
@@ -12433,7 +12427,7 @@
         <v>114</v>
       </c>
       <c r="B19" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C19">
         <v>1</v>
@@ -12444,7 +12438,7 @@
         <v>116</v>
       </c>
       <c r="B20" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C20">
         <v>1</v>
@@ -12455,7 +12449,7 @@
         <v>118</v>
       </c>
       <c r="B21" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C21">
         <v>1</v>
@@ -12466,7 +12460,7 @@
         <v>121</v>
       </c>
       <c r="B22" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C22">
         <v>1</v>
@@ -12477,7 +12471,7 @@
         <v>134</v>
       </c>
       <c r="B23" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C23">
         <v>1</v>
@@ -12488,7 +12482,7 @@
         <v>137</v>
       </c>
       <c r="B24" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C24">
         <v>1</v>
@@ -12499,7 +12493,7 @@
         <v>139</v>
       </c>
       <c r="B25" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C25">
         <v>1</v>
@@ -12510,7 +12504,7 @@
         <v>149</v>
       </c>
       <c r="B26" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C26">
         <v>1</v>
@@ -12521,7 +12515,7 @@
         <v>151</v>
       </c>
       <c r="B27" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C27">
         <v>1</v>
@@ -12532,7 +12526,7 @@
         <v>155</v>
       </c>
       <c r="B28" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C28">
         <v>1</v>
@@ -12543,7 +12537,7 @@
         <v>157</v>
       </c>
       <c r="B29" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C29">
         <v>1</v>
@@ -12554,7 +12548,7 @@
         <v>161</v>
       </c>
       <c r="B30" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C30">
         <v>1</v>
@@ -12565,7 +12559,7 @@
         <v>200</v>
       </c>
       <c r="B31" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C31">
         <v>1</v>
@@ -12576,7 +12570,7 @@
         <v>201</v>
       </c>
       <c r="B32" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C32">
         <v>1</v>
@@ -12584,10 +12578,10 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
+        <v>452</v>
+      </c>
+      <c r="B33" t="s">
         <v>453</v>
-      </c>
-      <c r="B33" t="s">
-        <v>454</v>
       </c>
       <c r="C33">
         <v>1</v>
@@ -12598,7 +12592,7 @@
         <v>207</v>
       </c>
       <c r="B34" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C34">
         <v>1</v>
@@ -12615,7 +12609,7 @@
         <v>211</v>
       </c>
       <c r="B35" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C35">
         <v>1</v>
@@ -12632,7 +12626,7 @@
         <v>212</v>
       </c>
       <c r="B36" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C36">
         <v>1</v>
@@ -12649,7 +12643,7 @@
         <v>213</v>
       </c>
       <c r="B37" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C37">
         <v>1</v>
@@ -12666,7 +12660,7 @@
         <v>214</v>
       </c>
       <c r="B38" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C38">
         <v>1</v>
@@ -12683,7 +12677,7 @@
         <v>215</v>
       </c>
       <c r="B39" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C39">
         <v>1</v>
@@ -12700,7 +12694,7 @@
         <v>216</v>
       </c>
       <c r="B40" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C40">
         <v>1</v>
@@ -12717,7 +12711,7 @@
         <v>217</v>
       </c>
       <c r="B41" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C41">
         <v>1</v>
@@ -12734,7 +12728,7 @@
         <v>218</v>
       </c>
       <c r="B42" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C42">
         <v>1</v>
@@ -12751,7 +12745,7 @@
         <v>219</v>
       </c>
       <c r="B43" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C43">
         <v>1</v>
@@ -12768,7 +12762,7 @@
         <v>220</v>
       </c>
       <c r="B44" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C44">
         <v>1</v>
@@ -12785,7 +12779,7 @@
         <v>221</v>
       </c>
       <c r="B45" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C45">
         <v>1</v>
@@ -12802,7 +12796,7 @@
         <v>222</v>
       </c>
       <c r="B46" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C46">
         <v>1</v>
@@ -12819,7 +12813,7 @@
         <v>223</v>
       </c>
       <c r="B47" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C47">
         <v>1</v>
@@ -12836,7 +12830,7 @@
         <v>224</v>
       </c>
       <c r="B48" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C48">
         <v>1</v>
@@ -12853,7 +12847,7 @@
         <v>225</v>
       </c>
       <c r="B49" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C49">
         <v>1</v>
@@ -12870,7 +12864,7 @@
         <v>226</v>
       </c>
       <c r="B50" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C50">
         <v>1</v>
@@ -12887,7 +12881,7 @@
         <v>228</v>
       </c>
       <c r="B51" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C51">
         <v>1</v>
@@ -12904,7 +12898,7 @@
         <v>229</v>
       </c>
       <c r="B52" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C52">
         <v>1</v>
@@ -12921,7 +12915,7 @@
         <v>230</v>
       </c>
       <c r="B53" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C53">
         <v>1</v>
@@ -12938,7 +12932,7 @@
         <v>231</v>
       </c>
       <c r="B54" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C54">
         <v>1</v>
@@ -12955,7 +12949,7 @@
         <v>232</v>
       </c>
       <c r="B55" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C55">
         <v>1</v>
@@ -12972,7 +12966,7 @@
         <v>233</v>
       </c>
       <c r="B56" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C56">
         <v>1</v>
@@ -12989,7 +12983,7 @@
         <v>235</v>
       </c>
       <c r="B57" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C57">
         <v>1</v>
@@ -13000,7 +12994,7 @@
         <v>236</v>
       </c>
       <c r="B58" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C58">
         <v>1</v>
@@ -13017,7 +13011,7 @@
         <v>237</v>
       </c>
       <c r="B59" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C59">
         <v>1</v>
@@ -13034,7 +13028,7 @@
         <v>238</v>
       </c>
       <c r="B60" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C60">
         <v>1</v>
@@ -13051,7 +13045,7 @@
         <v>239</v>
       </c>
       <c r="B61" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C61">
         <v>1</v>
@@ -13068,7 +13062,7 @@
         <v>240</v>
       </c>
       <c r="B62" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C62">
         <v>1</v>
@@ -13085,7 +13079,7 @@
         <v>241</v>
       </c>
       <c r="B63" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C63">
         <v>1</v>
@@ -13102,7 +13096,7 @@
         <v>242</v>
       </c>
       <c r="B64" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C64">
         <v>1</v>
@@ -13119,7 +13113,7 @@
         <v>243</v>
       </c>
       <c r="B65" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C65">
         <v>1</v>
@@ -13136,7 +13130,7 @@
         <v>244</v>
       </c>
       <c r="B66" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C66">
         <v>1</v>
@@ -13153,7 +13147,7 @@
         <v>247</v>
       </c>
       <c r="B67" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C67">
         <v>1</v>
@@ -13170,7 +13164,7 @@
         <v>248</v>
       </c>
       <c r="B68" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C68">
         <v>1</v>
@@ -13187,7 +13181,7 @@
         <v>249</v>
       </c>
       <c r="B69" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C69">
         <v>1</v>
@@ -13204,7 +13198,7 @@
         <v>250</v>
       </c>
       <c r="B70" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C70">
         <v>1</v>
@@ -13221,7 +13215,7 @@
         <v>251</v>
       </c>
       <c r="B71" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C71">
         <v>1</v>
@@ -13238,7 +13232,7 @@
         <v>252</v>
       </c>
       <c r="B72" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C72">
         <v>1</v>
@@ -13255,7 +13249,7 @@
         <v>253</v>
       </c>
       <c r="B73" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C73">
         <v>1</v>
@@ -13266,7 +13260,7 @@
         <v>254</v>
       </c>
       <c r="B74" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C74">
         <v>1</v>
@@ -13277,7 +13271,7 @@
         <v>258</v>
       </c>
       <c r="B75" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C75">
         <v>2</v>
@@ -13288,7 +13282,7 @@
         <v>259</v>
       </c>
       <c r="B76" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C76">
         <v>2</v>
@@ -13299,7 +13293,7 @@
         <v>260</v>
       </c>
       <c r="B77" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C77">
         <v>1</v>
@@ -13310,7 +13304,7 @@
         <v>261</v>
       </c>
       <c r="B78" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C78">
         <v>1</v>
@@ -13321,7 +13315,7 @@
         <v>262</v>
       </c>
       <c r="B79" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C79">
         <v>1</v>
@@ -13332,7 +13326,7 @@
         <v>265</v>
       </c>
       <c r="B80" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C80">
         <v>2</v>
@@ -13343,7 +13337,7 @@
         <v>266</v>
       </c>
       <c r="B81" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C81">
         <v>1</v>
@@ -13354,7 +13348,7 @@
         <v>267</v>
       </c>
       <c r="B82" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C82">
         <v>1</v>
@@ -13365,7 +13359,7 @@
         <v>268</v>
       </c>
       <c r="B83" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C83">
         <v>1</v>
@@ -13376,7 +13370,7 @@
         <v>269</v>
       </c>
       <c r="B84" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C84">
         <v>1</v>
@@ -13387,7 +13381,7 @@
         <v>270</v>
       </c>
       <c r="B85" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C85">
         <v>1</v>
@@ -13398,7 +13392,7 @@
         <v>271</v>
       </c>
       <c r="B86" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C86">
         <v>1</v>
@@ -13409,7 +13403,7 @@
         <v>273</v>
       </c>
       <c r="B87" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C87">
         <v>1</v>
@@ -13420,7 +13414,7 @@
         <v>274</v>
       </c>
       <c r="B88" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C88">
         <v>1</v>
@@ -13431,7 +13425,7 @@
         <v>275</v>
       </c>
       <c r="B89" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C89">
         <v>1</v>
@@ -13442,7 +13436,7 @@
         <v>276</v>
       </c>
       <c r="B90" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C90">
         <v>1</v>
@@ -13453,7 +13447,7 @@
         <v>277</v>
       </c>
       <c r="B91" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C91">
         <v>1</v>
@@ -13464,7 +13458,7 @@
         <v>278</v>
       </c>
       <c r="B92" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C92">
         <v>1</v>
@@ -13475,7 +13469,7 @@
         <v>279</v>
       </c>
       <c r="B93" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C93">
         <v>1</v>
@@ -13486,7 +13480,7 @@
         <v>21</v>
       </c>
       <c r="B94" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C94">
         <v>1</v>
@@ -13500,16 +13494,16 @@
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
+        <v>461</v>
+      </c>
+      <c r="B95" t="s">
         <v>462</v>
-      </c>
-      <c r="B95" t="s">
-        <v>463</v>
       </c>
       <c r="C95">
         <v>4</v>
       </c>
       <c r="F95" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
   </sheetData>
@@ -13552,10 +13546,10 @@
         <v>295</v>
       </c>
       <c r="F1" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="G1" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -13563,7 +13557,7 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -13583,7 +13577,7 @@
         <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C3">
         <v>8</v>
@@ -13597,7 +13591,7 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -13617,7 +13611,7 @@
         <v>14</v>
       </c>
       <c r="B5" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -13637,7 +13631,7 @@
         <v>15</v>
       </c>
       <c r="B6" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -13657,7 +13651,7 @@
         <v>16</v>
       </c>
       <c r="B7" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -13677,7 +13671,7 @@
         <v>17</v>
       </c>
       <c r="B8" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -13697,7 +13691,7 @@
         <v>18</v>
       </c>
       <c r="B9" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -13717,7 +13711,7 @@
         <v>19</v>
       </c>
       <c r="B10" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -13737,7 +13731,7 @@
         <v>20</v>
       </c>
       <c r="B11" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -13757,7 +13751,7 @@
         <v>99</v>
       </c>
       <c r="B12" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -13777,7 +13771,7 @@
         <v>101</v>
       </c>
       <c r="B13" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C13">
         <v>1</v>
@@ -13797,7 +13791,7 @@
         <v>23</v>
       </c>
       <c r="B14" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -13817,7 +13811,7 @@
         <v>25</v>
       </c>
       <c r="B15" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C15">
         <v>1</v>
@@ -13837,7 +13831,7 @@
         <v>26</v>
       </c>
       <c r="B16" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C16">
         <v>1</v>
@@ -13857,7 +13851,7 @@
         <v>27</v>
       </c>
       <c r="B17" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C17">
         <v>1</v>
@@ -13877,7 +13871,7 @@
         <v>28</v>
       </c>
       <c r="B18" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C18">
         <v>1</v>
@@ -13897,7 +13891,7 @@
         <v>29</v>
       </c>
       <c r="B19" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C19">
         <v>1</v>
@@ -13917,7 +13911,7 @@
         <v>30</v>
       </c>
       <c r="B20" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C20">
         <v>1</v>
@@ -13937,7 +13931,7 @@
         <v>31</v>
       </c>
       <c r="B21" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C21">
         <v>1</v>
@@ -13957,7 +13951,7 @@
         <v>32</v>
       </c>
       <c r="B22" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C22">
         <v>1</v>
@@ -13977,7 +13971,7 @@
         <v>33</v>
       </c>
       <c r="B23" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C23">
         <v>1</v>
@@ -13997,7 +13991,7 @@
         <v>104</v>
       </c>
       <c r="B24" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C24">
         <v>1</v>
@@ -14017,7 +14011,7 @@
         <v>263</v>
       </c>
       <c r="B25" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C25">
         <v>7</v>
@@ -14031,7 +14025,7 @@
         <v>12</v>
       </c>
       <c r="B26" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C26">
         <v>0</v>
@@ -14051,7 +14045,7 @@
         <v>13</v>
       </c>
       <c r="B27" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C27">
         <v>10</v>
@@ -14071,7 +14065,7 @@
         <v>91</v>
       </c>
       <c r="B28" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C28">
         <v>3</v>
@@ -14091,7 +14085,7 @@
         <v>95</v>
       </c>
       <c r="B29" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C29">
         <v>4</v>
@@ -14105,7 +14099,7 @@
         <v>98</v>
       </c>
       <c r="B30" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C30">
         <v>4</v>
@@ -14119,7 +14113,7 @@
         <v>102</v>
       </c>
       <c r="B31" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C31">
         <v>0</v>
@@ -14139,7 +14133,7 @@
         <v>191</v>
       </c>
       <c r="B32" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C32">
         <v>1</v>
@@ -14159,7 +14153,7 @@
         <v>192</v>
       </c>
       <c r="B33" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C33">
         <v>1</v>
@@ -14176,10 +14170,10 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B34" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C34">
         <v>6</v>
@@ -14190,10 +14184,10 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B35" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C35">
         <v>6</v>
@@ -14204,10 +14198,10 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B36" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C36">
         <v>6</v>
@@ -14226,7 +14220,7 @@
   <dimension ref="A1:D50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A50" sqref="A50"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14244,10 +14238,10 @@
         <v>299</v>
       </c>
       <c r="C1" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D1" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -14319,7 +14313,7 @@
         <v>67</v>
       </c>
       <c r="B10" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -14327,7 +14321,7 @@
         <v>73</v>
       </c>
       <c r="B11" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="C11" t="s">
         <v>73</v>
@@ -14338,10 +14332,10 @@
         <v>73</v>
       </c>
       <c r="B12" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C12" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -14349,7 +14343,7 @@
         <v>79</v>
       </c>
       <c r="B13" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -14357,7 +14351,7 @@
         <v>83</v>
       </c>
       <c r="B14" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -14365,7 +14359,7 @@
         <v>107</v>
       </c>
       <c r="B15" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -14373,7 +14367,7 @@
         <v>113</v>
       </c>
       <c r="B16" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -14381,7 +14375,7 @@
         <v>119</v>
       </c>
       <c r="B17" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -14389,7 +14383,7 @@
         <v>123</v>
       </c>
       <c r="B18" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -14397,7 +14391,7 @@
         <v>124</v>
       </c>
       <c r="B19" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -14405,7 +14399,7 @@
         <v>126</v>
       </c>
       <c r="B20" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -14413,7 +14407,7 @@
         <v>127</v>
       </c>
       <c r="B21" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -14421,7 +14415,7 @@
         <v>128</v>
       </c>
       <c r="B22" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -14429,7 +14423,7 @@
         <v>129</v>
       </c>
       <c r="B23" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -14437,7 +14431,7 @@
         <v>131</v>
       </c>
       <c r="B24" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -14445,7 +14439,7 @@
         <v>133</v>
       </c>
       <c r="B25" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -14453,7 +14447,7 @@
         <v>135</v>
       </c>
       <c r="B26" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
@@ -14461,7 +14455,7 @@
         <v>139</v>
       </c>
       <c r="B27" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
@@ -14469,7 +14463,7 @@
         <v>141</v>
       </c>
       <c r="B28" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
@@ -14477,7 +14471,7 @@
         <v>143</v>
       </c>
       <c r="B29" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
@@ -14485,15 +14479,15 @@
         <v>144</v>
       </c>
       <c r="B30" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B31" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
@@ -14501,15 +14495,15 @@
         <v>148</v>
       </c>
       <c r="B32" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B33" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
@@ -14517,7 +14511,7 @@
         <v>153</v>
       </c>
       <c r="B34" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
@@ -14525,7 +14519,7 @@
         <v>156</v>
       </c>
       <c r="B35" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
@@ -14533,7 +14527,7 @@
         <v>158</v>
       </c>
       <c r="B36" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
@@ -14541,7 +14535,7 @@
         <v>159</v>
       </c>
       <c r="B37" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
@@ -14549,7 +14543,7 @@
         <v>160</v>
       </c>
       <c r="B38" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
@@ -14557,7 +14551,7 @@
         <v>193</v>
       </c>
       <c r="B39" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
@@ -14573,7 +14567,7 @@
         <v>195</v>
       </c>
       <c r="B41" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
@@ -14581,7 +14575,7 @@
         <v>196</v>
       </c>
       <c r="B42" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
@@ -14589,7 +14583,7 @@
         <v>197</v>
       </c>
       <c r="B43" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
@@ -14597,7 +14591,7 @@
         <v>202</v>
       </c>
       <c r="B44" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
@@ -14605,7 +14599,7 @@
         <v>198</v>
       </c>
       <c r="B45" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
@@ -14613,7 +14607,7 @@
         <v>199</v>
       </c>
       <c r="B46" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
@@ -14621,7 +14615,7 @@
         <v>204</v>
       </c>
       <c r="B47" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
@@ -14629,7 +14623,7 @@
         <v>205</v>
       </c>
       <c r="B48" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
@@ -14637,7 +14631,7 @@
         <v>209</v>
       </c>
       <c r="B49" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
@@ -14645,7 +14639,7 @@
         <v>255</v>
       </c>
       <c r="B50" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
   </sheetData>
@@ -14677,10 +14671,10 @@
         <v>299</v>
       </c>
       <c r="C1" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="D1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -14688,10 +14682,10 @@
         <v>83</v>
       </c>
       <c r="B2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C2" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -14699,13 +14693,13 @@
         <v>83</v>
       </c>
       <c r="B3" t="s">
+        <v>450</v>
+      </c>
+      <c r="C3" t="s">
+        <v>448</v>
+      </c>
+      <c r="D3" t="s">
         <v>451</v>
-      </c>
-      <c r="C3" t="s">
-        <v>449</v>
-      </c>
-      <c r="D3" t="s">
-        <v>452</v>
       </c>
     </row>
   </sheetData>
